--- a/VennOutput/NonTrimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/NonTrimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -732,7 +732,9 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -769,7 +771,9 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -806,7 +810,9 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -843,7 +849,9 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -880,7 +888,9 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -917,7 +927,9 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -954,7 +966,9 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -991,7 +1005,9 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1028,7 +1044,9 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1065,7 +1083,9 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1102,7 +1122,9 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1139,7 +1161,9 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1176,7 +1200,9 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1213,7 +1239,9 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1250,7 +1278,9 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1287,7 +1317,9 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1324,7 +1356,9 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1361,7 +1395,9 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1398,7 +1434,9 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1435,7 +1473,9 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1472,7 +1512,9 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1509,7 +1551,9 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1546,7 +1590,9 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1583,7 +1629,9 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1620,7 +1668,9 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1657,7 +1707,9 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1694,7 +1746,9 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1731,7 +1785,9 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1768,7 +1824,9 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1805,7 +1863,9 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1842,7 +1902,9 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1879,7 +1941,9 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1916,7 +1980,9 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1953,7 +2019,9 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1990,7 +2058,9 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2027,7 +2097,9 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2064,7 +2136,9 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2101,7 +2175,9 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2138,7 +2214,9 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2175,7 +2253,9 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2212,7 +2292,9 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2249,7 +2331,9 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2286,7 +2370,9 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2323,7 +2409,9 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2360,7 +2448,9 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2397,7 +2487,9 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2434,7 +2526,9 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2471,7 +2565,9 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2508,7 +2604,9 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2545,7 +2643,9 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2582,7 +2682,9 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2619,7 +2721,9 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2656,7 +2760,9 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2693,7 +2799,9 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2730,7 +2838,9 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2767,7 +2877,9 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2804,7 +2916,9 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2841,7 +2955,9 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2878,7 +2994,9 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2915,7 +3033,9 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2952,7 +3072,9 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2989,7 +3111,9 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3026,7 +3150,9 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MODERNA_BIVALENT</t>
+          <t xml:space="preserve">
+Moderna
+Bi</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3063,7 +3189,9 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3100,7 +3228,9 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3137,7 +3267,9 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3174,7 +3306,9 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3211,7 +3345,9 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3248,7 +3384,9 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3285,7 +3423,9 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3322,7 +3462,9 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3359,7 +3501,9 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3396,7 +3540,9 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3433,7 +3579,9 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3470,7 +3618,9 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3507,7 +3657,9 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3544,7 +3696,9 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3581,7 +3735,9 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MODERNA</t>
+          <t xml:space="preserve">
+Moderna
+Mono</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">

--- a/VennOutput/NonTrimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
+++ b/VennOutput/NonTrimmed_MODERNA_Combined_Output_Mono-vs-Bivalent.xlsx
@@ -370,52 +370,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Case No.x</t>
+          <t>Case No</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRR.x</t>
+          <t>PRR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.x</t>
+          <t>Percentage of cases</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.x</t>
+          <t>Xsquared</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Significance.x</t>
+          <t>Significance</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Case No.y</t>
+          <t>Case No.MODERNA_BI</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PRR.y</t>
+          <t>PRR.MODERNA_BI</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Percentage of cases.y</t>
+          <t>Percentage of cases.MODERNA_BI</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Xsquared.y</t>
+          <t>Xsquared.MODERNA_BI</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Significance.y</t>
+          <t>Significance.MODERNA_BI</t>
         </is>
       </c>
     </row>
